--- a/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física intensa</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física intensa (tasa de respuesta: 90,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,01</t>
+          <t>35,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,91</t>
+          <t>21,12</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,24; 46,29</t>
+          <t>23,49; 62,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,22</t>
+          <t>2,08; 6,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 41,89</t>
+          <t>3,28; 39,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,24</t>
+          <t>6,75; 28,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,06</t>
+          <t>0,45; 1,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,66</t>
+          <t>0,65; 4,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 23,57</t>
+          <t>14,74; 34,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,07</t>
+          <t>1,25; 2,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 20,89</t>
+          <t>2,49; 20,9</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,64</t>
+          <t>48,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,88</t>
+          <t>29,33</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,16</t>
+          <t>38,96</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,72; 45,41</t>
+          <t>43,51; 53,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 15,42</t>
+          <t>6,97; 15,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,22; 27,77</t>
+          <t>20,18; 27,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 30,79</t>
+          <t>25,02; 33,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,96</t>
+          <t>2,07; 4,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,77</t>
+          <t>6,13; 9,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,04</t>
+          <t>35,6; 42,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,65</t>
+          <t>5,3; 9,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 17,97</t>
+          <t>14,02; 18,3</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,11</t>
+          <t>56,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,23</t>
+          <t>38,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,08</t>
+          <t>46,72</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,93; 60,63</t>
+          <t>49,47; 64,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 22,54</t>
+          <t>15,52; 22,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 33,68</t>
+          <t>23,92; 33,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 41,89</t>
+          <t>34,24; 44,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,46</t>
+          <t>5,59; 9,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 18,84</t>
+          <t>12,43; 18,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,43; 48,59</t>
+          <t>42,57; 51,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 14,92</t>
+          <t>11,03; 15,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 23,83</t>
+          <t>18,14; 23,64</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,04</t>
+          <t>49,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,46</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,1</t>
+          <t>39,07</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,96; 46,86</t>
+          <t>45,16; 53,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,88</t>
+          <t>7,93; 14,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,1; 27,1</t>
+          <t>20,91; 26,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,26</t>
+          <t>26,9; 33,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,75</t>
+          <t>2,76; 4,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,89</t>
+          <t>8,6; 11,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 36,16</t>
+          <t>36,72; 41,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,34</t>
+          <t>6,43; 9,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 18,28</t>
+          <t>14,81; 18,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32,41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>35,24</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>32,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>12,27</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,33</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>21,12</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>22,56</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,33; 6,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 39,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 49,79</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>23,49; 62,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 6,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>22,11; 49,79</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 39,31</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,35; 1,8</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 4,48</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 24,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>6,75; 28,56</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 1,97</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 24,74</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 4,48</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>1,3; 2,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 20,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 34,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>14,74; 34,76</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 2,93</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>16,61; 34,32</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 20,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23,76</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38,37</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>48,29</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>38,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,76</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,57</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>29,33</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,57</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>9,43</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,81</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,46</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>38,96</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>26,46</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>15,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>12,14; 16,34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 27,65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34,49; 42,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>43,51; 53,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 15,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>34,49; 42,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>20,18; 27,65</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>3,5; 5,78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 9,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 17,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>25,02; 33,86</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,87</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>12,7; 17,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 9,88</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>8,25; 10,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 18,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 28,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>35,6; 42,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 9,55</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>24,18; 28,75</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 18,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>19,15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27,83</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,73</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>56,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>38,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>27,83</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,96</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14,98</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22,18</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>38,87</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>22,18</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,98</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>13,14</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,63</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29,98</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>46,72</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,02</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>29,98</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>15,76; 22,9</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 33,01</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33,18; 45,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>49,47; 64,98</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 22,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>33,18; 45,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>23,92; 33,01</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,37; 8,88</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 18,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 27,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>34,24; 44,81</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 9,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>18,6; 27,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 18,98</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>11,12; 15,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 23,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 33,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>42,57; 51,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,03; 15,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>26,81; 33,84</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>18,14; 23,64</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>14,18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23,67</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37,92</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>49,24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>37,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>23,67</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9,96</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,75</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>29,85</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,46</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27,17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>39,07</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>27,17</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>12,55; 15,8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 26,98</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34,97; 41,28</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>45,16; 53,31</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 14,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>34,97; 41,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>20,91; 26,98</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3,61; 5,19</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 11,87</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 18,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>26,9; 33,24</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 4,78</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>14,94; 18,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 11,87</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>8,19; 10,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 18,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 29,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>36,72; 41,83</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,43; 9,31</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>25,37; 29,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>14,81; 18,13</t>
         </is>
       </c>
     </row>
